--- a/src/notebooks/worc_employment_clean.xlsx
+++ b/src/notebooks/worc_employment_clean.xlsx
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>60000</v>
+        <v>28.84</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
